--- a/results/R_gene_lists/d2_FRC_subtype_ova_GO.xlsx
+++ b/results/R_gene_lists/d2_FRC_subtype_ova_GO.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pos-CD34+SC" r:id="rId3" sheetId="1"/>
+    <sheet name="high-CD34+SC" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
